--- a/biology/Botanique/Mitraillette_(cuisine)/Mitraillette_(cuisine).xlsx
+++ b/biology/Botanique/Mitraillette_(cuisine)/Mitraillette_(cuisine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mitraillette, est un mets constituée d'une demi-baguette contenant une viande cuite, servie chaude (ou parfois froide), des frites et de la sauce. C'est une préparation culinaire populaire très répandue dans les friteries et les snacks de Belgique.
@@ -513,9 +525,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de la mitraillette remonterait à l'entre-deux-guerres et elle proviendrait de la ville de Charleroi où elle était initialement composée d'une « tartine remplie de frites et de beurre[1],[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de la mitraillette remonterait à l'entre-deux-guerres et elle proviendrait de la ville de Charleroi où elle était initialement composée d'une « tartine remplie de frites et de beurre, ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mitraillette traditionnelle est composée de[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mitraillette traditionnelle est composée de :
 une demi-baguette, ou des dérivés ;
 une viande chaude (parfois froide) ;
 des frites ;
@@ -581,9 +597,11 @@
           <t>Les sauces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est possible de choisir plusieurs types de sauce (par exemple, on dira : une « mitraillette Mexicano sauce américaine »), et celle-ci est généralement placée dans le pain et au-dessus des frites. Elle est parfois servie dans un petit pot qui accompagne la mitraillette (on parle alors de « sauce à part »)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de choisir plusieurs types de sauce (par exemple, on dira : une « mitraillette Mexicano sauce américaine »), et celle-ci est généralement placée dans le pain et au-dessus des frites. Elle est parfois servie dans un petit pot qui accompagne la mitraillette (on parle alors de « sauce à part »).
 Dans la région de Bruxelles, il est très répandu de commander une mitraillette avec deux sauces différentes à l’intérieur du pain.[réf. souhaitée]
 </t>
         </is>
@@ -613,7 +631,9 @@
           <t>Apport nutritionnel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La mitraillette est un plat très riche. L'apport nutritionnel dépend du type de baguette, de la quantité et de la qualité des frites, de l'huile de cuisson, de la viande, des crudités, du type de sauce et de la quantité de sel. Ce tableau, établi à partir d'une mitraillette moyenne, est un exemple.
 </t>
@@ -644,10 +664,12 @@
           <t>Restauration rapide</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, la chaîne de restauration rapide Quick lance temporairement, uniquement en Belgique, un hamburger garni de frites (allumettes) à l'intérieur, appelé « suprême allumettes »[5].
-En décembre 2020, l'ancien Top Chef finaliste, Jean-Philippe Watteyne, a ouvert un restaurant mitraillette éphémère (pop-up) à Mons[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, la chaîne de restauration rapide Quick lance temporairement, uniquement en Belgique, un hamburger garni de frites (allumettes) à l'intérieur, appelé « suprême allumettes ».
+En décembre 2020, l'ancien Top Chef finaliste, Jean-Philippe Watteyne, a ouvert un restaurant mitraillette éphémère (pop-up) à Mons.
 </t>
         </is>
       </c>
